--- a/mcmaster_excel/Extra-Wide_Tamper-Resistant_Drilled_Spanner_Truss_Head_Screws.xlsx
+++ b/mcmaster_excel/Extra-Wide_Tamper-Resistant_Drilled_Spanner_Truss_Head_Screws.xlsx
@@ -434,90 +434,106 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Min.Thread Lg.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
     </row>
@@ -587,7 +603,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -655,7 +675,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -723,7 +747,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -791,7 +819,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -859,7 +891,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -927,7 +963,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -995,7 +1035,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1063,7 +1107,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1131,7 +1179,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1199,7 +1251,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1267,7 +1323,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1335,7 +1395,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1403,7 +1467,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1471,7 +1539,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1539,7 +1611,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1607,7 +1683,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1675,7 +1755,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1743,7 +1827,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1811,7 +1899,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1879,7 +1971,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1947,7 +2043,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2015,7 +2115,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2083,7 +2187,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2151,7 +2259,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2219,7 +2331,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2287,7 +2403,11 @@
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2355,7 +2475,11 @@
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2423,7 +2547,11 @@
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2491,7 +2619,11 @@
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2559,7 +2691,11 @@
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2627,7 +2763,11 @@
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2695,7 +2835,11 @@
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2763,7 +2907,11 @@
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2831,7 +2979,11 @@
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2899,7 +3051,11 @@
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2967,7 +3123,11 @@
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3035,7 +3195,11 @@
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3103,7 +3267,11 @@
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
